--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_21-08.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_21-08.xlsx
@@ -143,78 +143,87 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>DIAX 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>DICLAC 75 MG/3ML 6AMPS.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>DIGESTIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>DOLO-D PLUS ORAL SUSP. 115 ML</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 20/1100MG 14 CAPSULES</t>
+  </si>
+  <si>
+    <t>DOXIPROCT PLUS RECTAL OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>EASYRON 30 TABLETS</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>FLACORT 6MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>DIAX 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>DICLAC 75 MG/3ML 6AMPS.</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>DIGESTIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>DOLO-D PLUS ORAL SUSP. 115 ML</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 20/1100MG 14 CAPSULES</t>
-  </si>
-  <si>
-    <t>DOXIPROCT PLUS RECTAL OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>EASYRON 30 TABLETS</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA FORTE TOPICAL GEL 40 GM</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>FLACORT 6MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -251,9 +260,6 @@
     <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>KEFLEX 500MG 12 CAP</t>
   </si>
   <si>
@@ -470,10 +476,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>-1:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>-1:0</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -1738,11 +1744,11 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>0.67000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1784,17 +1790,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1802,7 +1808,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1810,17 +1816,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1828,7 +1834,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1836,17 +1842,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1862,17 +1868,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1880,7 +1886,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1888,17 +1894,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1914,17 +1920,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1932,7 +1938,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1940,13 +1946,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
@@ -1958,7 +1964,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1972,7 +1978,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
@@ -1984,7 +1990,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1998,7 +2004,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
@@ -2010,7 +2016,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2018,17 +2024,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2044,17 +2050,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2062,7 +2068,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2070,13 +2076,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
@@ -2088,7 +2094,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2096,13 +2102,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
@@ -2114,7 +2120,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2122,17 +2128,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2140,7 +2146,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2148,17 +2154,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>169.19999999999999</v>
+        <v>80</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2166,7 +2172,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2174,13 +2180,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>100</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
@@ -2192,7 +2198,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2200,13 +2206,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
@@ -2218,7 +2224,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2226,13 +2232,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>25.739999999999998</v>
+        <v>54</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
@@ -2244,7 +2250,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2252,17 +2258,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>27.260000000000002</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2270,7 +2276,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2278,17 +2284,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>35.5</v>
+        <v>27.260000000000002</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2296,7 +2302,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2304,17 +2310,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>119</v>
+        <v>35.5</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2322,7 +2328,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2336,11 +2342,11 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2348,7 +2354,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2356,13 +2362,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
@@ -2374,7 +2380,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2382,17 +2388,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2400,7 +2406,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2414,11 +2420,11 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2426,7 +2432,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2434,13 +2440,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
@@ -2452,7 +2458,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2466,7 +2472,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>69.5</v>
+        <v>75</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
@@ -2478,7 +2484,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2486,17 +2492,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>86.5</v>
+        <v>69.5</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2504,7 +2510,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2512,17 +2518,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>27</v>
+        <v>86.5</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2530,7 +2536,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2538,17 +2544,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2556,7 +2562,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2564,13 +2570,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>38.5</v>
+        <v>58</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
@@ -2582,7 +2588,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2590,17 +2596,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>19</v>
+        <v>38.5</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2608,7 +2614,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2616,17 +2622,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>0.40000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2642,17 +2648,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>1</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2660,7 +2666,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2668,13 +2674,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
@@ -2686,7 +2692,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2694,17 +2700,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2712,7 +2718,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2720,17 +2726,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2738,7 +2744,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2746,17 +2752,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2764,7 +2770,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2772,17 +2778,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2790,7 +2796,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2798,13 +2804,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
@@ -2816,7 +2822,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2824,13 +2830,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
@@ -2842,7 +2848,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2850,17 +2856,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2868,7 +2874,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2876,17 +2882,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>24.960000000000001</v>
+        <v>46</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2894,7 +2900,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2902,17 +2908,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>36</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2920,7 +2926,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2928,17 +2934,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>33.840000000000003</v>
+        <v>36</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2946,7 +2952,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2954,17 +2960,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>31</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2972,7 +2978,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2980,17 +2986,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3006,17 +3012,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>0.25</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3024,7 +3030,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -3032,17 +3038,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3058,17 +3064,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3076,7 +3082,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3090,11 +3096,11 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3102,7 +3108,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3110,17 +3116,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3128,7 +3134,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3142,7 +3148,7 @@
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
@@ -3154,7 +3160,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3162,17 +3168,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3188,17 +3194,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3206,7 +3212,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3214,17 +3220,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3232,7 +3238,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3240,17 +3246,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3258,7 +3264,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3272,7 +3278,7 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
@@ -3284,7 +3290,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3292,13 +3298,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
@@ -3310,7 +3316,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3318,13 +3324,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
@@ -3336,7 +3342,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3344,13 +3350,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
@@ -3362,7 +3368,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3370,13 +3376,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
@@ -3388,7 +3394,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3396,13 +3402,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
@@ -3414,7 +3420,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3422,17 +3428,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3448,17 +3454,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>134.40000000000001</v>
+        <v>26</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>4</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3466,7 +3472,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3474,17 +3480,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>60</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3492,7 +3498,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3500,13 +3506,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
@@ -3518,7 +3524,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3526,13 +3532,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
@@ -3544,7 +3550,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3552,13 +3558,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
@@ -3578,13 +3584,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
@@ -3596,7 +3602,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3610,11 +3616,11 @@
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3622,7 +3628,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3630,17 +3636,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3648,7 +3654,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3656,17 +3662,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>74.689999999999998</v>
+        <v>168</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>0.20000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3674,7 +3680,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3682,17 +3688,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>128</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3700,7 +3706,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3708,17 +3714,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3726,7 +3732,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3734,17 +3740,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3752,7 +3758,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3760,17 +3766,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>24.960000000000001</v>
+        <v>18</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3778,7 +3784,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3786,17 +3792,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>17</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3804,7 +3810,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3812,17 +3818,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3838,17 +3844,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3856,7 +3862,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3864,13 +3870,13 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>102.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
@@ -3882,7 +3888,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3890,17 +3896,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>168</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3908,7 +3914,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3916,17 +3922,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3942,13 +3948,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
@@ -3960,7 +3966,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3968,13 +3974,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
@@ -3986,7 +3992,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3994,17 +4000,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>98.400000000000006</v>
+        <v>30</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4026,11 +4032,11 @@
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>20</v>
+        <v>98.400000000000006</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4046,13 +4052,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
@@ -4064,7 +4070,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4072,17 +4078,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4098,17 +4104,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4116,7 +4122,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4124,17 +4130,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4142,7 +4148,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4150,17 +4156,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4168,7 +4174,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4176,13 +4182,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
@@ -4194,7 +4200,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4202,13 +4208,13 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
@@ -4220,7 +4226,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4228,13 +4234,13 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
@@ -4246,7 +4252,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4254,17 +4260,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4272,7 +4278,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4280,17 +4286,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4306,17 +4312,17 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
@@ -4324,7 +4330,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4332,17 +4338,17 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" ht="24.75" customHeight="1">
@@ -4350,7 +4356,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4358,13 +4364,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10">
@@ -4384,13 +4390,13 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="10">
@@ -4402,7 +4408,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4410,51 +4416,77 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M131" s="9"/>
       <c r="N131" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="132" ht="26.25" customHeight="1">
-      <c r="K132" s="11">
-        <v>7359.9399999999996</v>
-      </c>
-      <c r="L132" s="11"/>
-      <c r="M132" s="11"/>
-      <c r="N132" s="11"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="12">
-        <v>168</v>
-      </c>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c t="s" r="F133" s="13">
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="6">
+        <v>129</v>
+      </c>
+      <c t="s" r="B132" s="7">
         <v>169</v>
       </c>
-      <c r="G133" s="13"/>
-      <c r="H133" s="14"/>
-      <c t="s" r="I133" s="15">
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c t="s" r="H132" s="8">
+        <v>55</v>
+      </c>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="9">
+        <v>30</v>
+      </c>
+      <c r="M132" s="9"/>
+      <c r="N132" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" ht="25.5" customHeight="1">
+      <c r="K133" s="11">
+        <v>7388.9399999999996</v>
+      </c>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+    </row>
+    <row r="134" ht="17.25" customHeight="1">
+      <c t="s" r="A134" s="12">
         <v>170</v>
       </c>
-      <c r="J133" s="15"/>
-      <c r="K133" s="15"/>
-      <c r="L133" s="15"/>
-      <c r="M133" s="15"/>
-      <c r="N133" s="15"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c t="s" r="F134" s="13">
+        <v>171</v>
+      </c>
+      <c r="G134" s="13"/>
+      <c r="H134" s="14"/>
+      <c t="s" r="I134" s="15">
+        <v>172</v>
+      </c>
+      <c r="J134" s="15"/>
+      <c r="K134" s="15"/>
+      <c r="L134" s="15"/>
+      <c r="M134" s="15"/>
+      <c r="N134" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="395">
+  <mergeCells count="398">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4846,10 +4878,13 @@
     <mergeCell ref="B131:G131"/>
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
-    <mergeCell ref="K132:N132"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="I133:N133"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="K133:N133"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="I134:N134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
